--- a/Sirius_ProjectPlan.xlsx
+++ b/Sirius_ProjectPlan.xlsx
@@ -270,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +280,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -353,6 +359,22 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,7 +679,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,6 +905,9 @@
       <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="F9" s="9">
+        <v>41128</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>22</v>
       </c>
@@ -903,6 +928,9 @@
       <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="F10" s="9">
+        <v>41128</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
@@ -923,6 +951,9 @@
       <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="F11" s="9">
+        <v>41152</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1027,27 +1058,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:10" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="C17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="13">
+        <v>41091</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="13">
+        <v>41091</v>
+      </c>
+      <c r="I17" s="13">
+        <v>41091</v>
+      </c>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1067,7 +1108,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1087,7 +1128,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1107,7 +1148,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1127,7 +1168,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1147,7 +1188,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1167,7 +1208,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1187,7 +1228,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1207,7 +1248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1227,7 +1268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1247,7 +1288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1267,7 +1308,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1287,7 +1328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1307,7 +1348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1327,7 +1368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
